--- a/data/output_correct/output_Strategy3b_10_FIFO.xlsx
+++ b/data/output_correct/output_Strategy3b_10_FIFO.xlsx
@@ -1,37 +1,81 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="output" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="output" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>elAppWT</t>
+  </si>
+  <si>
+    <t>elScanWT</t>
+  </si>
+  <si>
+    <t>urScanWT</t>
+  </si>
+  <si>
+    <t>OT</t>
+  </si>
+  <si>
+    <t>OV</t>
+  </si>
+  <si>
+    <t>run 0</t>
+  </si>
+  <si>
+    <t>run 1</t>
+  </si>
+  <si>
+    <t>run 2</t>
+  </si>
+  <si>
+    <t>run 3</t>
+  </si>
+  <si>
+    <t>run 4</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +90,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,202 +406,172 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>r</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>elAppWT</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>elScanWT</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>urScanWT</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>OT</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>OV</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>run 0</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="n">
-        <v>17.52243456991145</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.04147578747780833</v>
-      </c>
-      <c r="E2" t="n">
-        <v>3.566750911739538</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.8503796508634306</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.500605862633231</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>run 1</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="n">
-        <v>16.26917996414027</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.0412838365326687</v>
-      </c>
-      <c r="E3" t="n">
-        <v>3.522487797038215</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.8195006523003652</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.4882278899336524</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>run 2</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" t="n">
-        <v>15.42354549960313</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.04134505481228681</v>
-      </c>
-      <c r="E4" t="n">
-        <v>3.563795969307431</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.8477465016278954</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.4877841483730665</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>run 3</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" t="n">
-        <v>15.73558836883066</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.04165394050104122</v>
-      </c>
-      <c r="E5" t="n">
-        <v>3.521863343909149</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.8364150283710827</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.4849823658043736</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>run 4</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C6" t="n">
-        <v>17.76016385117871</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.043483303110773</v>
-      </c>
-      <c r="E6" t="n">
-        <v>3.521648502943283</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.8283270650206459</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.4970095391237301</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Average</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>17.94130392132621</v>
+      </c>
+      <c r="D2">
+        <v>0.03864293142446122</v>
+      </c>
+      <c r="E2">
+        <v>2.973254265680741</v>
+      </c>
+      <c r="F2">
+        <v>1.17450410245673</v>
+      </c>
+      <c r="G2">
+        <v>0.4371550607978177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>14.91727804452217</v>
+      </c>
+      <c r="D3">
+        <v>0.04030721097114865</v>
+      </c>
+      <c r="E3">
+        <v>3.342244225733039</v>
+      </c>
+      <c r="F3">
+        <v>1.345349121199084</v>
+      </c>
+      <c r="G3">
+        <v>0.4601537912194776</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>14.31194610360706</v>
+      </c>
+      <c r="D4">
+        <v>0.03883318768711254</v>
+      </c>
+      <c r="E4">
+        <v>3.393470363790271</v>
+      </c>
+      <c r="F4">
+        <v>1.372125241161861</v>
+      </c>
+      <c r="G4">
+        <v>0.4622424180219769</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>15.73940247588333</v>
+      </c>
+      <c r="D5">
+        <v>0.03861314437439982</v>
+      </c>
+      <c r="E5">
+        <v>3.452955532792567</v>
+      </c>
+      <c r="F5">
+        <v>1.397493320977935</v>
+      </c>
+      <c r="G5">
+        <v>0.4773486453651463</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
         <v>4</v>
       </c>
-      <c r="C7" t="n">
-        <v>16.54218245073285</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.04184838448691562</v>
-      </c>
-      <c r="E7" t="n">
-        <v>3.539309304987523</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.8364737796366839</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.4917219611736108</v>
+      <c r="C6">
+        <v>20.66985602938012</v>
+      </c>
+      <c r="D6">
+        <v>0.04069171985668391</v>
+      </c>
+      <c r="E6">
+        <v>3.475958153220691</v>
+      </c>
+      <c r="F6">
+        <v>1.435099796481838</v>
+      </c>
+      <c r="G6">
+        <v>0.5092524298978156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>16.71595731494378</v>
+      </c>
+      <c r="D7">
+        <v>0.03941763886276123</v>
+      </c>
+      <c r="E7">
+        <v>3.327576508243462</v>
+      </c>
+      <c r="F7">
+        <v>1.34491431645549</v>
+      </c>
+      <c r="G7">
+        <v>0.4692304690604468</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>